--- a/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
+++ b/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\Train-Project\TrainProject\TrainProject\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\Documents\TrainProject\TrainProject\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="90">
   <si>
     <t>Block Number</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Z</t>
   </si>
   <si>
-    <t>SWITCH TO YARD</t>
-  </si>
-  <si>
     <t>SWITCH TO/FROM YARD</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
   </si>
   <si>
     <t>STATION; INGLEWOOD; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; OVERBROOK; UNDERGROUND</t>
   </si>
   <si>
     <t>STATION; SWISSVILLE</t>
@@ -274,9 +268,6 @@
     <t>Head/Head</t>
   </si>
   <si>
-    <t>STATION; MT LEBANON</t>
-  </si>
-  <si>
     <t>STATION; NORTH POLE</t>
   </si>
   <si>
@@ -293,6 +284,12 @@
   </si>
   <si>
     <t>SWITCH; STATION; HERRON AVE</t>
+  </si>
+  <si>
+    <t>SWITCH TO YARD; STATION; OVERBROOK; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>SWITCH; STATION; MT LEBANON</t>
   </si>
 </sst>
 </file>
@@ -720,23 +717,23 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:L78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="3"/>
+    <col min="2" max="2" width="12.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.81640625" style="1"/>
+    <col min="11" max="11" width="10.7265625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -765,13 +762,13 @@
         <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -799,13 +796,13 @@
         <v>0.25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Red</v>
@@ -834,7 +831,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Red</v>
@@ -863,10 +860,10 @@
         <v>1.5</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -895,10 +892,10 @@
         <v>2.5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -927,7 +924,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -956,10 +953,10 @@
         <v>3.75</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -991,10 +988,10 @@
         <v>4.125</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1023,7 +1020,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1044,7 +1041,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="0"/>
@@ -1055,13 +1052,13 @@
         <v>4.125</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1090,13 +1087,13 @@
         <v>4.125</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1125,7 +1122,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1154,10 +1151,10 @@
         <v>3.375</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1186,10 +1183,10 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1218,7 +1215,7 @@
         <v>2.0909999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1250,13 +1247,13 @@
         <v>1.4909999999999997</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1288,13 +1285,13 @@
         <v>1.2409999999999997</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1323,7 +1320,7 @@
         <v>0.24099999999999966</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1353,7 +1350,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1382,7 +1379,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1411,10 +1408,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1435,7 +1432,7 @@
         <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="0"/>
@@ -1446,10 +1443,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1478,7 +1475,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1507,10 +1504,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1542,10 +1539,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1577,7 +1574,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1609,7 +1606,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1641,10 +1638,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1676,10 +1673,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1711,7 +1708,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1743,7 +1740,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1775,7 +1772,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1807,10 +1804,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1842,10 +1839,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1877,7 +1874,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1909,7 +1906,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1941,7 +1938,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Red</v>
@@ -1973,7 +1970,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2005,10 +2002,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2040,10 +2037,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2075,7 +2072,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2107,7 +2104,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2139,7 +2136,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2171,10 +2168,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2206,10 +2203,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2241,10 +2238,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2276,10 +2273,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2300,7 +2297,7 @@
         <v>70</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" si="0"/>
@@ -2311,7 +2308,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2343,10 +2340,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2375,10 +2372,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2407,7 +2404,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2436,7 +2433,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2468,10 +2465,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2500,10 +2497,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2532,10 +2529,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2564,10 +2561,10 @@
         <v>0.37499999999999967</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2596,7 +2593,7 @@
         <v>0.74999999999999967</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2625,10 +2622,10 @@
         <v>1.1249999999999996</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2657,10 +2654,10 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2689,7 +2686,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2721,10 +2718,10 @@
         <v>2.2499999999999996</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2753,10 +2750,10 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2785,7 +2782,7 @@
         <v>1.1249999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2814,10 +2811,10 @@
         <v>0.37499999999999956</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2846,10 +2843,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2878,7 +2875,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2907,13 +2904,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2945,13 +2942,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2983,10 +2980,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3018,7 +3015,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A77" si="5">A70</f>
         <v>Red</v>
@@ -3050,10 +3047,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3085,13 +3082,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3123,13 +3120,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3161,10 +3158,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3196,7 +3193,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3228,10 +3225,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3263,13 +3260,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
@@ -3297,238 +3294,238 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C154" s="5"/>
     </row>
   </sheetData>
@@ -3542,27 +3539,27 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G169" sqref="G169"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="3"/>
+    <col min="2" max="2" width="12.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="30" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="8.85546875" style="3"/>
-    <col min="12" max="12" width="10.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="10" width="8.81640625" style="1"/>
+    <col min="11" max="11" width="8.81640625" style="3"/>
+    <col min="12" max="12" width="10.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3591,13 +3588,13 @@
         <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3625,13 +3622,13 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -3652,7 +3649,7 @@
         <v>55</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="0">E3*D3/100</f>
@@ -3663,7 +3660,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Green</v>
@@ -3692,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3724,10 +3721,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3756,7 +3753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3785,10 +3782,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3818,10 +3815,10 @@
         <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3850,7 +3847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3871,7 +3868,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -3882,7 +3879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3911,7 +3908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3940,7 +3937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3960,9 +3957,6 @@
       <c r="F13" s="3">
         <v>55</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>-3</v>
@@ -3972,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3998,6 +3992,9 @@
       <c r="F14" s="3">
         <v>70</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4007,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4042,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4071,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4092,7 +4089,7 @@
         <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
@@ -4103,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4135,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4167,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4188,7 +4185,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
@@ -4199,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4228,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4260,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4284,7 +4281,7 @@
         <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
@@ -4295,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4324,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4353,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4382,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4411,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4440,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4460,6 +4457,9 @@
       <c r="F29" s="3">
         <v>70</v>
       </c>
+      <c r="G29" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I29" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4495,9 +4495,6 @@
       <c r="F30" s="3">
         <v>70</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4507,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4542,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4563,7 +4560,7 @@
         <v>70</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
@@ -4574,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4603,10 +4600,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4635,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4667,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4696,10 +4693,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4731,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -4766,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4798,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4819,7 +4816,7 @@
         <v>70</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="0"/>
@@ -4830,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4862,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4894,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4926,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4958,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4990,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5022,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5054,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5086,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5107,7 +5104,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="0"/>
@@ -5118,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5150,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5182,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5214,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5246,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5278,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5310,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5342,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5374,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5395,7 +5392,7 @@
         <v>70</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="0"/>
@@ -5406,13 +5403,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5432,9 +5429,7 @@
       <c r="F59" s="3">
         <v>60</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="G59" s="7"/>
       <c r="I59" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5444,13 +5439,13 @@
         <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5479,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5508,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5537,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5561,7 +5556,7 @@
         <v>60</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="0"/>
@@ -5572,13 +5567,13 @@
         <v>0</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5607,10 +5602,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5639,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5660,7 +5655,7 @@
         <v>70</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="0"/>
@@ -5671,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5700,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5729,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5758,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5790,10 +5785,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="5">A70</f>
         <v>Green</v>
@@ -5822,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5851,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5880,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5901,7 +5896,7 @@
         <v>60</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="3"/>
@@ -5912,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5944,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5976,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5996,9 +5991,6 @@
       <c r="F77" s="3">
         <v>60</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I77" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6008,13 +6000,13 @@
         <v>0</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6035,7 +6027,7 @@
         <v>70</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" ref="I78:I109" si="6">E78*D78/100</f>
@@ -6046,13 +6038,13 @@
         <v>0</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6081,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6110,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6139,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6168,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6197,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6226,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6255,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6275,6 +6267,9 @@
       <c r="F86" s="3">
         <v>70</v>
       </c>
+      <c r="G86" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I86" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6284,13 +6279,13 @@
         <v>0</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6310,9 +6305,6 @@
       <c r="F87" s="3">
         <v>55</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I87" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6322,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6357,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6378,7 +6370,7 @@
         <v>55</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="6"/>
@@ -6389,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6421,10 +6413,10 @@
         <v>-0.375</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6453,7 +6445,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6482,7 +6474,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6511,7 +6503,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6540,7 +6532,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6569,7 +6561,7 @@
         <v>-0.375</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6598,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6619,7 +6611,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="6"/>
@@ -6630,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6659,10 +6651,10 @@
         <v>0</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6691,10 +6683,10 @@
         <v>0</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6723,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6752,13 +6744,13 @@
         <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6787,13 +6779,13 @@
         <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6822,10 +6814,10 @@
         <v>0</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6854,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6883,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6919,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6951,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6980,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7009,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7038,10 +7030,10 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7070,10 +7062,10 @@
         <v>0</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7102,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7131,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7160,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7193,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7222,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7251,10 +7243,10 @@
         <v>0</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7283,10 +7275,10 @@
         <v>0</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7315,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7344,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7373,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7402,10 +7394,10 @@
         <v>0</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7437,10 +7429,10 @@
         <v>0</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7462,7 +7454,7 @@
       </c>
       <c r="G124" s="7" t="str">
         <f>G58</f>
-        <v>STATION; OVERBROOK; UNDERGROUND</v>
+        <v>SWITCH TO YARD; STATION; OVERBROOK; UNDERGROUND</v>
       </c>
       <c r="I124" s="3">
         <f t="shared" si="8"/>
@@ -7473,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7505,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7537,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7569,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7601,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7633,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7665,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7697,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7729,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7762,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7794,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A153" si="10">A134</f>
         <v>Green</v>
@@ -7826,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7858,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7890,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7922,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7954,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7986,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8018,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8051,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8083,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8115,10 +8107,10 @@
         <v>0</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8147,10 +8139,10 @@
         <v>0</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8179,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8208,10 +8200,10 @@
         <v>0</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8240,10 +8232,10 @@
         <v>0</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8272,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8301,10 +8293,10 @@
         <v>0</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8333,19 +8325,19 @@
         <v>0</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C152" s="5">
         <v>151</v>
@@ -8368,19 +8360,19 @@
         <v>0</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C153" s="5">
         <v>152</v>
@@ -8403,13 +8395,13 @@
         <v>0</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>10</v>
       </c>
@@ -8437,13 +8429,13 @@
         <v>0.25</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="str">
         <f>A154</f>
         <v>Red</v>
@@ -8472,7 +8464,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="str">
         <f t="shared" ref="A156:A219" si="14">A155</f>
         <v>Red</v>
@@ -8501,10 +8493,10 @@
         <v>1.5</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8533,10 +8525,10 @@
         <v>2.5</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8565,7 +8557,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8594,10 +8586,10 @@
         <v>3.75</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8618,7 +8610,7 @@
         <v>40</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I160" s="8">
         <f t="shared" si="13"/>
@@ -8629,10 +8621,10 @@
         <v>4.125</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8661,7 +8653,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8682,7 +8674,7 @@
         <v>40</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I162" s="8">
         <f t="shared" si="13"/>
@@ -8693,13 +8685,13 @@
         <v>4.125</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8728,13 +8720,13 @@
         <v>4.125</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8763,7 +8755,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8792,10 +8784,10 @@
         <v>3.375</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8824,10 +8816,10 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8856,7 +8848,7 @@
         <v>2.0909999999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8885,13 +8877,13 @@
         <v>1.4909999999999997</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8912,7 +8904,7 @@
         <v>40</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I169" s="8">
         <f t="shared" si="13"/>
@@ -8923,13 +8915,13 @@
         <v>1.2409999999999997</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8958,7 +8950,7 @@
         <v>0.24099999999999966</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8988,7 +8980,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9017,7 +9009,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9046,10 +9038,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9070,7 +9062,7 @@
         <v>55</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I174" s="8">
         <f t="shared" si="13"/>
@@ -9081,10 +9073,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9113,7 +9105,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9142,10 +9134,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9177,10 +9169,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9201,7 +9193,7 @@
         <v>70</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I178" s="8">
         <f t="shared" si="13"/>
@@ -9212,7 +9204,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9244,7 +9236,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9276,10 +9268,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9311,10 +9303,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9346,7 +9338,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9378,7 +9370,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9410,7 +9402,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9442,10 +9434,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9477,10 +9469,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9512,7 +9504,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9533,7 +9525,7 @@
         <v>70</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I188" s="8">
         <f t="shared" si="13"/>
@@ -9544,7 +9536,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9576,7 +9568,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="str">
         <f>A186</f>
         <v>Red</v>
@@ -9608,7 +9600,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9640,10 +9632,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9675,10 +9667,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9710,7 +9702,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9742,7 +9734,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9774,7 +9766,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9795,7 +9787,7 @@
         <v>70</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I196" s="8">
         <f t="shared" si="13"/>
@@ -9806,10 +9798,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9830,7 +9822,7 @@
         <v>70</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I197" s="8">
         <f t="shared" si="13"/>
@@ -9841,10 +9833,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9865,7 +9857,7 @@
         <v>70</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I198" s="8">
         <f t="shared" si="13"/>
@@ -9876,10 +9868,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9911,10 +9903,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9935,7 +9927,7 @@
         <v>70</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I200" s="8">
         <f t="shared" si="13"/>
@@ -9946,7 +9938,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9978,10 +9970,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10010,10 +10002,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10042,7 +10034,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10071,7 +10063,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10103,10 +10095,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10135,10 +10127,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10167,10 +10159,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10199,10 +10191,10 @@
         <v>0.37499999999999967</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10231,7 +10223,7 @@
         <v>0.74999999999999967</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10260,10 +10252,10 @@
         <v>1.1249999999999996</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10292,10 +10284,10 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10324,7 +10316,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10356,10 +10348,10 @@
         <v>2.2499999999999996</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10388,10 +10380,10 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10420,7 +10412,7 @@
         <v>1.1249999999999996</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10449,10 +10441,10 @@
         <v>0.37499999999999956</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10481,10 +10473,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10513,7 +10505,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10542,13 +10534,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="str">
         <f t="shared" ref="A220:A229" si="17">A219</f>
         <v>Red</v>
@@ -10580,13 +10572,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10618,10 +10610,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10653,7 +10645,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10685,10 +10677,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10720,13 +10712,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10758,13 +10750,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10796,10 +10788,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10831,7 +10823,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10863,10 +10855,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10898,13 +10890,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>10</v>
       </c>
@@ -10932,10 +10924,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
+++ b/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
@@ -3539,8 +3539,8 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
+++ b/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
@@ -3539,8 +3539,8 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9423,7 +9423,7 @@
         <v>70</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I185" s="8">
         <f t="shared" si="13"/>
@@ -9458,7 +9458,7 @@
         <v>70</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I186" s="8">
         <f t="shared" si="13"/>
@@ -9787,7 +9787,7 @@
         <v>70</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I196" s="8">
         <f t="shared" si="13"/>
@@ -9822,7 +9822,7 @@
         <v>70</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I197" s="8">
         <f t="shared" si="13"/>

--- a/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
+++ b/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\Documents\TrainProject\TrainProject\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naran\Desktop\Trainzzz\TrainProject\TrainProject\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,23 +717,23 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:L78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="3"/>
-    <col min="2" max="2" width="12.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="3"/>
+    <col min="2" max="2" width="12.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.46484375" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.81640625" style="1"/>
-    <col min="11" max="11" width="10.7265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="10.53125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.46484375" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.796875" style="1"/>
+    <col min="11" max="11" width="10.73046875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.265625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.46484375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -768,7 +768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -802,7 +802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Red</v>
@@ -831,7 +831,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Red</v>
@@ -863,7 +863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -895,7 +895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -924,7 +924,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -956,7 +956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -991,7 +991,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1020,7 +1020,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1093,7 +1093,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1122,7 +1122,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1154,7 +1154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1186,7 +1186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1215,7 +1215,7 @@
         <v>2.0909999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1253,7 +1253,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1291,7 +1291,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1320,7 +1320,7 @@
         <v>0.24099999999999966</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1350,7 +1350,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1379,7 +1379,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1411,7 +1411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1446,7 +1446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1475,7 +1475,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1507,7 +1507,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1542,7 +1542,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1574,7 +1574,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1606,7 +1606,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1641,7 +1641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1676,7 +1676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1708,7 +1708,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1740,7 +1740,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1772,7 +1772,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1807,7 +1807,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1842,7 +1842,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1874,7 +1874,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1906,7 +1906,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1938,7 +1938,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Red</v>
@@ -1970,7 +1970,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2005,7 +2005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2040,7 +2040,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2072,7 +2072,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2104,7 +2104,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2136,7 +2136,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2171,7 +2171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2206,7 +2206,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2241,7 +2241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2276,7 +2276,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2308,7 +2308,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2343,7 +2343,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2375,7 +2375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2404,7 +2404,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2433,7 +2433,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2468,7 +2468,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2500,7 +2500,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2532,7 +2532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2564,7 +2564,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2593,7 +2593,7 @@
         <v>0.74999999999999967</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2625,7 +2625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2657,7 +2657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2686,7 +2686,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2721,7 +2721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2753,7 +2753,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2782,7 +2782,7 @@
         <v>1.1249999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2814,7 +2814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2846,7 +2846,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2875,7 +2875,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2910,7 +2910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2948,7 +2948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2983,7 +2983,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3015,7 +3015,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A77" si="5">A70</f>
         <v>Red</v>
@@ -3050,7 +3050,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3088,7 +3088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3126,7 +3126,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3161,7 +3161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3193,7 +3193,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3228,7 +3228,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3266,7 +3266,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
@@ -3300,232 +3300,232 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.5">
       <c r="C154" s="5"/>
     </row>
   </sheetData>
@@ -3539,27 +3539,27 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="3"/>
-    <col min="2" max="2" width="12.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="3"/>
+    <col min="2" max="2" width="12.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.46484375" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.53125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" style="3" customWidth="1"/>
     <col min="7" max="7" width="30" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.81640625" style="1"/>
-    <col min="11" max="11" width="8.81640625" style="3"/>
-    <col min="12" max="12" width="10.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="1"/>
+    <col min="8" max="10" width="8.796875" style="1"/>
+    <col min="11" max="11" width="8.796875" style="3"/>
+    <col min="12" max="12" width="10.796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.46484375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="32.65" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -3660,7 +3660,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Green</v>
@@ -3692,7 +3692,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3724,7 +3724,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3753,7 +3753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3785,7 +3785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3818,7 +3818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3847,7 +3847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3879,7 +3879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3908,7 +3908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3937,7 +3937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3972,7 +3972,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4010,7 +4010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4103,7 +4103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4135,7 +4135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4228,7 +4228,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4260,7 +4260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4475,7 +4475,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4510,7 +4510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4603,7 +4603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4635,7 +4635,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4696,7 +4696,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4731,7 +4731,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5409,7 +5409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5445,7 +5445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5531,11 +5531,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5555,9 +5552,6 @@
       <c r="F63" s="3">
         <v>60</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="I63" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5573,7 +5567,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5593,6 +5587,9 @@
       <c r="F64" s="3">
         <v>70</v>
       </c>
+      <c r="G64" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="I64" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5600,12 +5597,15 @@
       <c r="J64" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5756,7 +5756,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5788,7 +5788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="5">A70</f>
         <v>Green</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5910,7 +5910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5942,7 +5942,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6006,7 +6006,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6044,7 +6044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6285,7 +6285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6320,7 +6320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6384,7 +6384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6416,7 +6416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6445,7 +6445,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6474,7 +6474,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6503,7 +6503,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6532,7 +6532,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6561,7 +6561,7 @@
         <v>-0.375</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6654,7 +6654,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6686,7 +6686,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6750,7 +6750,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A102" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6785,7 +6785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A103" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6817,7 +6817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A104" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A105" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6878,7 +6878,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A106" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6914,7 +6914,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A107" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A108" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6972,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A109" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A110" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7033,7 +7033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A111" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7065,7 +7065,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A112" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A113" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A114" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A115" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A116" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A117" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7246,7 +7246,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A118" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7278,7 +7278,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A119" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A120" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A121" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A122" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7397,7 +7397,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A123" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7432,7 +7432,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A124" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A125" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A126" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A127" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A128" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A129" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A130" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A131" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A132" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A133" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A134" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A153" si="10">A134</f>
         <v>Green</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A136" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A137" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A138" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A139" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A140" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A141" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A142" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A143" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A144" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8110,7 +8110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A145" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8142,7 +8142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A146" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A147" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8203,7 +8203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A148" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8235,7 +8235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A149" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A150" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8296,7 +8296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A151" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8331,7 +8331,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A152" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8366,7 +8366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A153" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8401,7 +8401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A154" s="3" t="s">
         <v>10</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A155" s="3" t="str">
         <f>A154</f>
         <v>Red</v>
@@ -8464,7 +8464,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A156" s="3" t="str">
         <f t="shared" ref="A156:A219" si="14">A155</f>
         <v>Red</v>
@@ -8496,7 +8496,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A157" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8528,7 +8528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A158" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8557,7 +8557,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A159" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8589,7 +8589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A160" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8624,7 +8624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A161" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8653,7 +8653,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A162" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8691,7 +8691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A163" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8726,7 +8726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A164" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8755,7 +8755,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A165" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8787,7 +8787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A166" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8819,7 +8819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A167" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8848,7 +8848,7 @@
         <v>2.0909999999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A168" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8883,7 +8883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A169" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8921,7 +8921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A170" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8950,7 +8950,7 @@
         <v>0.24099999999999966</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A171" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8980,7 +8980,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A172" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9009,7 +9009,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A173" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9041,7 +9041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A174" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9076,7 +9076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A175" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9105,7 +9105,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A176" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9137,7 +9137,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A177" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9172,7 +9172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A178" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9204,7 +9204,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A179" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9236,7 +9236,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A180" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9271,7 +9271,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A181" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9306,7 +9306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A182" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9338,7 +9338,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A183" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9370,7 +9370,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A184" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9402,7 +9402,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A185" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9437,7 +9437,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A186" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9472,7 +9472,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A187" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9504,7 +9504,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A188" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9536,7 +9536,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A189" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9568,7 +9568,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A190" s="3" t="str">
         <f>A186</f>
         <v>Red</v>
@@ -9600,7 +9600,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A191" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9635,7 +9635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A192" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9670,7 +9670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A193" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9702,7 +9702,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A194" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9734,7 +9734,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A195" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9766,7 +9766,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A196" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9801,7 +9801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A197" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9836,7 +9836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A198" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9871,7 +9871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A199" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9906,7 +9906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A200" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9938,7 +9938,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A201" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9973,7 +9973,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A202" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10005,7 +10005,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A203" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10034,7 +10034,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A204" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10063,7 +10063,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A205" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10098,7 +10098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A206" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10130,7 +10130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A207" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10162,7 +10162,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A208" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10194,7 +10194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A209" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10223,7 +10223,7 @@
         <v>0.74999999999999967</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A210" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10255,7 +10255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A211" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10287,7 +10287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A212" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10316,7 +10316,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A213" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10351,7 +10351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A214" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10383,7 +10383,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A215" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10412,7 +10412,7 @@
         <v>1.1249999999999996</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A216" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10444,7 +10444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A217" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10476,7 +10476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A218" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10505,7 +10505,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A219" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10540,7 +10540,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A220" s="3" t="str">
         <f t="shared" ref="A220:A229" si="17">A219</f>
         <v>Red</v>
@@ -10578,7 +10578,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A221" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10613,7 +10613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A222" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10645,7 +10645,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A223" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10680,7 +10680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A224" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10718,7 +10718,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A225" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10756,7 +10756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A226" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10791,7 +10791,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A227" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10823,7 +10823,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A228" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10858,7 +10858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A229" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10896,7 +10896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A230" s="3" t="s">
         <v>10</v>
       </c>

--- a/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
+++ b/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naran\Desktop\Trainzzz\TrainProject\TrainProject\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael McAlpin\Documents\TrainProject\TrainProject\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Red Line" sheetId="1" r:id="rId1"/>
-    <sheet name="Green Line" sheetId="2" r:id="rId2"/>
+    <sheet name="Track" sheetId="1" r:id="rId1"/>
+    <sheet name="Green And Red Line" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="85">
   <si>
     <t>Block Number</t>
   </si>
@@ -119,21 +119,6 @@
   </si>
   <si>
     <t>CUMALTIVE ELEVATION (M)</t>
-  </si>
-  <si>
-    <t>STATION: SHADYSIDE</t>
-  </si>
-  <si>
-    <t>STATION: HERRON AVE</t>
-  </si>
-  <si>
-    <t>STATION;     STEEL PLAZA; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION;    PENN STATION; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION;     FIRST AVE; UNDERGROUND</t>
   </si>
   <si>
     <t>STATION; STATION SQUARE</t>
@@ -387,6 +372,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>346500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>102242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E7D06A-38D2-4C79-9514-703778EA2BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="346500" y="638175"/>
+          <a:ext cx="4444576" cy="5941067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,2825 +752,1117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
-    <col min="2" max="2" width="12.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.53125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.46484375" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.796875" style="1"/>
-    <col min="11" max="11" width="10.73046875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.46484375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>40</v>
-      </c>
-      <c r="I2" s="8">
-        <f>E2*D2/100</f>
-        <v>0.25</v>
-      </c>
-      <c r="J2" s="8">
-        <f>I2</f>
-        <v>0.25</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="str">
-        <f>A2</f>
-        <v>Red</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>40</v>
-      </c>
-      <c r="I3" s="8">
-        <f t="shared" ref="I3:I66" si="0">E3*D3/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="8">
-        <f>I3+J2</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A70" si="1">A3</f>
-        <v>Red</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>40</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J4" s="8">
-        <f t="shared" ref="J4:J67" si="2">I4+J3</f>
-        <v>1.5</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>40</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>40</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" si="2"/>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>40</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="2"/>
-        <v>3.75</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>75</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>75</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>40</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>75</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>75</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>40</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>75</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>40</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="2"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>75</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>40</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="2"/>
-        <v>3.375</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>40</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.68400000000000005</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="2"/>
-        <v>2.6909999999999998</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3">
-        <v>60</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>40</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.6</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="2"/>
-        <v>2.0909999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>60</v>
-      </c>
-      <c r="E16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>40</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.6</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="2"/>
-        <v>1.4909999999999997</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>40</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.25</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2409999999999997</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3">
-        <v>200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>55</v>
-      </c>
-      <c r="I18" s="8">
-        <f>E18*D18/100</f>
-        <v>-1</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="2"/>
-        <v>0.24099999999999966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3">
-        <v>400</v>
-      </c>
-      <c r="E19" s="3">
-        <f>-100*0.241/400</f>
-        <v>-6.0249999999999998E-2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>70</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.24099999999999999</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3">
-        <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>70</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3">
-        <v>200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>70</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>55</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="5">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>55</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="3">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3">
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>55</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>70</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="5">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3">
-        <v>50</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>70</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3">
-        <v>50</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>70</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3">
-        <v>50</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>70</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="3">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>70</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3">
-        <v>60</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>70</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="5">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3">
-        <v>60</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>70</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="3">
-        <v>31</v>
-      </c>
-      <c r="D32" s="3">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>70</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="5">
-        <v>32</v>
-      </c>
-      <c r="D33" s="3">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>70</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="3">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3">
-        <v>50</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>70</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="3">
-        <v>34</v>
-      </c>
-      <c r="D35" s="3">
-        <v>50</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>70</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="5">
-        <v>35</v>
-      </c>
-      <c r="D36" s="3">
-        <v>50</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>70</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="3">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>70</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A38" s="3" t="str">
-        <f>A34</f>
-        <v>Red</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="3">
-        <v>37</v>
-      </c>
-      <c r="D38" s="3">
-        <v>50</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>70</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A39" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="5">
-        <v>38</v>
-      </c>
-      <c r="D39" s="3">
-        <v>50</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>70</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A40" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="3">
-        <v>39</v>
-      </c>
-      <c r="D40" s="3">
-        <v>50</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>70</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="3">
-        <v>40</v>
-      </c>
-      <c r="D41" s="3">
-        <v>60</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>70</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A42" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="5">
-        <v>41</v>
-      </c>
-      <c r="D42" s="3">
-        <v>60</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>70</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A43" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="3">
-        <v>42</v>
-      </c>
-      <c r="D43" s="3">
-        <v>50</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>70</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A44" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="3">
-        <v>43</v>
-      </c>
-      <c r="D44" s="3">
-        <v>50</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>70</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A45" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="5">
-        <v>44</v>
-      </c>
-      <c r="D45" s="3">
-        <v>50</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>70</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="3">
-        <v>45</v>
-      </c>
-      <c r="D46" s="3">
-        <v>50</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>70</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A47" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="3">
-        <v>46</v>
-      </c>
-      <c r="D47" s="3">
-        <v>75</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>70</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A48" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="5">
-        <v>47</v>
-      </c>
-      <c r="D48" s="3">
-        <v>75</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>70</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I48" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="3">
-        <v>48</v>
-      </c>
-      <c r="D49" s="3">
-        <v>75</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>70</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A50" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="3">
-        <v>49</v>
-      </c>
-      <c r="D50" s="3">
-        <v>50</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>60</v>
-      </c>
-      <c r="I50" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A51" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="5">
-        <v>50</v>
-      </c>
-      <c r="D51" s="3">
-        <v>50</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>60</v>
-      </c>
-      <c r="I51" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A52" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="3">
-        <v>51</v>
-      </c>
-      <c r="D52" s="3">
-        <v>50</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>55</v>
-      </c>
-      <c r="I52" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="3">
-        <v>52</v>
-      </c>
-      <c r="D53" s="3">
-        <v>43.2</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>55</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A54" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="5">
-        <v>53</v>
-      </c>
-      <c r="D54" s="3">
-        <v>50</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>55</v>
-      </c>
-      <c r="I54" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A55" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="3">
-        <v>54</v>
-      </c>
-      <c r="D55" s="3">
-        <v>50</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>55</v>
-      </c>
-      <c r="I55" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A56" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="3">
-        <v>55</v>
-      </c>
-      <c r="D56" s="3">
-        <v>75</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F56" s="3">
-        <v>55</v>
-      </c>
-      <c r="I56" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J56" s="8">
-        <f t="shared" si="2"/>
-        <v>0.37499999999999967</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A57" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="5">
-        <v>56</v>
-      </c>
-      <c r="D57" s="3">
-        <v>75</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>55</v>
-      </c>
-      <c r="I57" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J57" s="8">
-        <f t="shared" si="2"/>
-        <v>0.74999999999999967</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A58" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="3">
-        <v>57</v>
-      </c>
-      <c r="D58" s="3">
-        <v>75</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>55</v>
-      </c>
-      <c r="I58" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J58" s="8">
-        <f t="shared" si="2"/>
-        <v>1.1249999999999996</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="3">
-        <v>58</v>
-      </c>
-      <c r="D59" s="3">
-        <v>75</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>55</v>
-      </c>
-      <c r="I59" s="8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J59" s="8">
-        <f t="shared" si="2"/>
-        <v>1.8749999999999996</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A60" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="5">
-        <v>59</v>
-      </c>
-      <c r="D60" s="3">
-        <v>75</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>55</v>
-      </c>
-      <c r="I60" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J60" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2499999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A61" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="3">
-        <v>60</v>
-      </c>
-      <c r="D61" s="3">
-        <v>75</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>55</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I61" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2499999999999996</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A62" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="3">
-        <v>61</v>
-      </c>
-      <c r="D62" s="3">
-        <v>75</v>
-      </c>
-      <c r="E62" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>55</v>
-      </c>
-      <c r="I62" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J62" s="8">
-        <f t="shared" si="2"/>
-        <v>1.8749999999999996</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A63" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="5">
-        <v>62</v>
-      </c>
-      <c r="D63" s="3">
-        <v>75</v>
-      </c>
-      <c r="E63" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F63" s="3">
-        <v>55</v>
-      </c>
-      <c r="I63" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J63" s="8">
-        <f t="shared" si="2"/>
-        <v>1.1249999999999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A64" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="3">
-        <v>63</v>
-      </c>
-      <c r="D64" s="3">
-        <v>75</v>
-      </c>
-      <c r="E64" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>55</v>
-      </c>
-      <c r="I64" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J64" s="8">
-        <f t="shared" si="2"/>
-        <v>0.37499999999999956</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A65" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="3">
-        <v>64</v>
-      </c>
-      <c r="D65" s="3">
-        <v>75</v>
-      </c>
-      <c r="E65" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F65" s="3">
-        <v>55</v>
-      </c>
-      <c r="I65" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J65" s="8">
-        <f t="shared" si="2"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A66" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="5">
-        <v>65</v>
-      </c>
-      <c r="D66" s="3">
-        <v>75</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>55</v>
-      </c>
-      <c r="I66" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="8">
-        <f t="shared" si="2"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A67" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="3">
-        <v>66</v>
-      </c>
-      <c r="D67" s="3">
-        <v>75</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
-        <v>55</v>
-      </c>
-      <c r="I67" s="8">
-        <f t="shared" ref="I67:I77" si="3">E67*D67/100</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="8">
-        <f t="shared" si="2"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A68" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="3">
-        <v>67</v>
-      </c>
-      <c r="D68" s="3">
-        <v>50</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>55</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="8">
-        <f t="shared" ref="J68:J77" si="4">I68+J67</f>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A69" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="5">
-        <v>68</v>
-      </c>
-      <c r="D69" s="3">
-        <v>50</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>55</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A70" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="3">
-        <v>69</v>
-      </c>
-      <c r="D70" s="3">
-        <v>50</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>55</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A71" s="3" t="str">
-        <f t="shared" ref="A71:A77" si="5">A70</f>
-        <v>Red</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="3">
-        <v>70</v>
-      </c>
-      <c r="D71" s="3">
-        <v>50</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>55</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A72" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="5">
-        <v>71</v>
-      </c>
-      <c r="D72" s="3">
-        <v>50</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>55</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A73" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="3">
-        <v>72</v>
-      </c>
-      <c r="D73" s="3">
-        <v>50</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
-        <v>55</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A74" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="3">
-        <v>73</v>
-      </c>
-      <c r="D74" s="3">
-        <v>50</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>55</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A75" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="5">
-        <v>74</v>
-      </c>
-      <c r="D75" s="3">
-        <v>50</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>55</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A76" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="3">
-        <v>75</v>
-      </c>
-      <c r="D76" s="3">
-        <v>50</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>55</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A77" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="3">
-        <v>76</v>
-      </c>
-      <c r="D77" s="3">
-        <v>50</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <v>55</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="5">
-        <v>77</v>
-      </c>
-      <c r="D78" s="3">
-        <v>50</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>35</v>
-      </c>
-      <c r="I78" s="8">
-        <f t="shared" ref="I78" si="6">E78*D78/100</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="8">
-        <f t="shared" ref="J78" si="7">I78+J77</f>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3538,28 +1870,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
-    <col min="2" max="2" width="12.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.53125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="30" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.796875" style="1"/>
-    <col min="11" max="11" width="8.796875" style="3"/>
-    <col min="12" max="12" width="10.796875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.46484375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="8.85546875" style="3"/>
+    <col min="12" max="12" width="10.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.65" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3576,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>9</v>
@@ -3588,13 +1920,13 @@
         <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3622,13 +1954,13 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -3649,7 +1981,7 @@
         <v>55</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="0">E3*D3/100</f>
@@ -3660,7 +1992,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Green</v>
@@ -3689,10 +2021,10 @@
         <v>3</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3721,10 +2053,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3753,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3782,10 +2114,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3815,10 +2147,10 @@
         <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3847,7 +2179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3868,7 +2200,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -3879,7 +2211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3908,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3937,7 +2269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3966,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4004,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4039,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4068,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4089,7 +2421,7 @@
         <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
@@ -4100,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4132,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4164,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4185,7 +2517,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
@@ -4196,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4225,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4257,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4281,7 +2613,7 @@
         <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
@@ -4292,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4321,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4350,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4379,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4408,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4437,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4469,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4504,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4539,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4560,7 +2892,7 @@
         <v>70</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
@@ -4571,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4600,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4632,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4664,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4693,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4728,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -4763,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4795,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4816,7 +3148,7 @@
         <v>70</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="0"/>
@@ -4827,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4859,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4891,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4923,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4955,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4987,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5019,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5051,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5083,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5104,7 +3436,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="0"/>
@@ -5115,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5147,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5179,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5211,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5243,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5275,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5307,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5339,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5371,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5392,7 +3724,7 @@
         <v>70</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="0"/>
@@ -5403,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5439,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5474,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5503,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5532,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5561,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5588,7 +3920,7 @@
         <v>70</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="0"/>
@@ -5599,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5634,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5655,7 +3987,7 @@
         <v>70</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="0"/>
@@ -5666,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5695,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5724,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5753,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5785,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="5">A70</f>
         <v>Green</v>
@@ -5817,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5846,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5875,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5896,7 +4228,7 @@
         <v>60</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="3"/>
@@ -5907,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5939,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5971,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6000,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6027,7 +4359,7 @@
         <v>70</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" ref="I78:I109" si="6">E78*D78/100</f>
@@ -6038,13 +4370,13 @@
         <v>0</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6073,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6102,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6131,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6160,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6189,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6218,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6247,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6279,13 +4611,13 @@
         <v>0</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6314,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6349,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6370,7 +4702,7 @@
         <v>55</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="6"/>
@@ -6381,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6413,10 +4745,10 @@
         <v>-0.375</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6445,7 +4777,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6474,7 +4806,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6503,7 +4835,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6532,7 +4864,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6561,7 +4893,7 @@
         <v>-0.375</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6590,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6611,7 +4943,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="6"/>
@@ -6622,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6651,10 +4983,10 @@
         <v>0</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6683,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6715,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6744,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6779,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6814,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6846,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6875,10 +5207,10 @@
         <v>0</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6911,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6943,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6972,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7001,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7030,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C111" s="5">
         <v>110</v>
@@ -7062,16 +5394,16 @@
         <v>0</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C112" s="3">
         <v>111</v>
@@ -7094,13 +5426,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C113" s="3">
         <v>112</v>
@@ -7123,13 +5455,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C114" s="3">
         <v>113</v>
@@ -7152,13 +5484,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C115" s="5">
         <v>114</v>
@@ -7185,13 +5517,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C116" s="3">
         <v>115</v>
@@ -7214,13 +5546,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C117" s="3">
         <v>116</v>
@@ -7243,16 +5575,16 @@
         <v>0</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C118" s="3">
         <v>117</v>
@@ -7275,16 +5607,16 @@
         <v>0</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C119" s="5">
         <v>118</v>
@@ -7307,13 +5639,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C120" s="3">
         <v>119</v>
@@ -7336,13 +5668,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C121" s="3">
         <v>120</v>
@@ -7365,13 +5697,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C122" s="3">
         <v>121</v>
@@ -7394,16 +5726,16 @@
         <v>0</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C123" s="5">
         <v>122</v>
@@ -7429,16 +5761,16 @@
         <v>0</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C124" s="3">
         <v>123</v>
@@ -7465,13 +5797,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C125" s="3">
         <v>124</v>
@@ -7497,13 +5829,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C126" s="3">
         <v>125</v>
@@ -7529,13 +5861,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C127" s="5">
         <v>126</v>
@@ -7561,13 +5893,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C128" s="3">
         <v>127</v>
@@ -7593,13 +5925,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C129" s="3">
         <v>128</v>
@@ -7625,13 +5957,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C130" s="3">
         <v>129</v>
@@ -7657,13 +5989,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C131" s="5">
         <v>130</v>
@@ -7689,13 +6021,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C132" s="3">
         <v>131</v>
@@ -7721,13 +6053,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C133" s="3">
         <v>132</v>
@@ -7754,13 +6086,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C134" s="3">
         <v>133</v>
@@ -7786,13 +6118,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A153" si="10">A134</f>
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C135" s="5">
         <v>134</v>
@@ -7818,13 +6150,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C136" s="3">
         <v>135</v>
@@ -7850,13 +6182,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C137" s="3">
         <v>136</v>
@@ -7882,13 +6214,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C138" s="3">
         <v>137</v>
@@ -7914,13 +6246,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C139" s="5">
         <v>138</v>
@@ -7946,13 +6278,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C140" s="3">
         <v>139</v>
@@ -7978,13 +6310,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C141" s="3">
         <v>140</v>
@@ -8010,13 +6342,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C142" s="3">
         <v>141</v>
@@ -8043,13 +6375,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C143" s="5">
         <v>142</v>
@@ -8075,13 +6407,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C144" s="3">
         <v>143</v>
@@ -8107,16 +6439,16 @@
         <v>0</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C145" s="3">
         <v>144</v>
@@ -8139,16 +6471,16 @@
         <v>0</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C146" s="3">
         <v>145</v>
@@ -8171,13 +6503,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C147" s="5">
         <v>146</v>
@@ -8200,16 +6532,16 @@
         <v>0</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C148" s="3">
         <v>147</v>
@@ -8232,16 +6564,16 @@
         <v>0</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C149" s="3">
         <v>148</v>
@@ -8264,13 +6596,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C150" s="3">
         <v>149</v>
@@ -8293,16 +6625,16 @@
         <v>0</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C151" s="5">
         <v>150</v>
@@ -8325,19 +6657,19 @@
         <v>0</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C152" s="5">
         <v>151</v>
@@ -8360,19 +6692,19 @@
         <v>0</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C153" s="5">
         <v>152</v>
@@ -8395,13 +6727,13 @@
         <v>0</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>10</v>
       </c>
@@ -8429,13 +6761,13 @@
         <v>0.25</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="str">
         <f>A154</f>
         <v>Red</v>
@@ -8464,7 +6796,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="str">
         <f t="shared" ref="A156:A219" si="14">A155</f>
         <v>Red</v>
@@ -8493,10 +6825,10 @@
         <v>1.5</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8525,10 +6857,10 @@
         <v>2.5</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8557,7 +6889,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8586,10 +6918,10 @@
         <v>3.75</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8610,7 +6942,7 @@
         <v>40</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I160" s="8">
         <f t="shared" si="13"/>
@@ -8621,10 +6953,10 @@
         <v>4.125</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8653,7 +6985,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8674,7 +7006,7 @@
         <v>40</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I162" s="8">
         <f t="shared" si="13"/>
@@ -8685,13 +7017,13 @@
         <v>4.125</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8720,13 +7052,13 @@
         <v>4.125</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8755,7 +7087,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8784,10 +7116,10 @@
         <v>3.375</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8816,10 +7148,10 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8848,7 +7180,7 @@
         <v>2.0909999999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8877,13 +7209,13 @@
         <v>1.4909999999999997</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8904,7 +7236,7 @@
         <v>40</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I169" s="8">
         <f t="shared" si="13"/>
@@ -8915,13 +7247,13 @@
         <v>1.2409999999999997</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8950,7 +7282,7 @@
         <v>0.24099999999999966</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8980,7 +7312,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9009,7 +7341,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9038,10 +7370,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9062,7 +7394,7 @@
         <v>55</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I174" s="8">
         <f t="shared" si="13"/>
@@ -9073,10 +7405,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9105,7 +7437,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9134,10 +7466,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9169,10 +7501,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9193,7 +7525,7 @@
         <v>70</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I178" s="8">
         <f t="shared" si="13"/>
@@ -9204,7 +7536,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9236,7 +7568,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9268,10 +7600,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9303,10 +7635,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9338,7 +7670,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9370,7 +7702,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9402,7 +7734,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9434,10 +7766,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9469,10 +7801,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9504,7 +7836,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9525,7 +7857,7 @@
         <v>70</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I188" s="8">
         <f t="shared" si="13"/>
@@ -9536,7 +7868,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9568,7 +7900,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="str">
         <f>A186</f>
         <v>Red</v>
@@ -9600,7 +7932,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9632,10 +7964,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9667,10 +7999,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9702,7 +8034,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9734,7 +8066,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9766,7 +8098,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9798,10 +8130,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9833,10 +8165,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9857,7 +8189,7 @@
         <v>70</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I198" s="8">
         <f t="shared" si="13"/>
@@ -9868,10 +8200,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9903,10 +8235,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9927,7 +8259,7 @@
         <v>70</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I200" s="8">
         <f t="shared" si="13"/>
@@ -9938,7 +8270,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9959,7 +8291,7 @@
         <v>70</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I201" s="8">
         <f t="shared" si="13"/>
@@ -9970,10 +8302,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10002,10 +8334,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10034,7 +8366,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10063,7 +8395,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10095,10 +8427,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10127,10 +8459,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10159,10 +8491,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10191,10 +8523,10 @@
         <v>0.37499999999999967</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10223,7 +8555,7 @@
         <v>0.74999999999999967</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10252,10 +8584,10 @@
         <v>1.1249999999999996</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10284,10 +8616,10 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10316,7 +8648,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10337,7 +8669,7 @@
         <v>55</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I213" s="8">
         <f t="shared" si="13"/>
@@ -10348,10 +8680,10 @@
         <v>2.2499999999999996</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10380,10 +8712,10 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10412,7 +8744,7 @@
         <v>1.1249999999999996</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10441,10 +8773,10 @@
         <v>0.37499999999999956</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10473,10 +8805,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10505,7 +8837,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10534,13 +8866,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K219" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L219" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L219" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.5">
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="str">
         <f t="shared" ref="A220:A229" si="17">A219</f>
         <v>Red</v>
@@ -10572,13 +8904,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10610,10 +8942,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10645,7 +8977,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10677,10 +9009,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10712,13 +9044,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10750,13 +9082,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10788,10 +9120,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10823,7 +9155,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10855,10 +9187,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10890,18 +9222,18 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C230" s="5">
         <v>77</v>
@@ -10924,10 +9256,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
+++ b/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\Documents\TrainProject\TrainProject\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaitlyn\Desktop\trainproj\TrainProject\TrainProject\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Red Line" sheetId="1" r:id="rId1"/>
     <sheet name="Green Line" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,23 +465,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -517,23 +500,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,23 +683,23 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:L78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="3"/>
-    <col min="2" max="2" width="12.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3"/>
+    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.81640625" style="1"/>
-    <col min="11" max="11" width="10.7265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="10.77734375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -768,7 +734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -802,7 +768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Red</v>
@@ -831,7 +797,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Red</v>
@@ -863,7 +829,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -895,7 +861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -924,7 +890,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -956,7 +922,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -991,7 +957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1020,7 +986,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1058,7 +1024,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1093,7 +1059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1122,7 +1088,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1154,7 +1120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1186,7 +1152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1215,7 +1181,7 @@
         <v>2.0909999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1253,7 +1219,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1291,7 +1257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1320,7 +1286,7 @@
         <v>0.24099999999999966</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1350,7 +1316,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1379,7 +1345,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1411,7 +1377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1446,7 +1412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1475,7 +1441,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1507,7 +1473,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1542,7 +1508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1574,7 +1540,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1606,7 +1572,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1641,7 +1607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1676,7 +1642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1708,7 +1674,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1740,7 +1706,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1772,7 +1738,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1807,7 +1773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1842,7 +1808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1874,7 +1840,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1906,7 +1872,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1938,7 +1904,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Red</v>
@@ -1970,7 +1936,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2005,7 +1971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2040,7 +2006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2072,7 +2038,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2104,7 +2070,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2136,7 +2102,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2171,7 +2137,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2206,7 +2172,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2241,7 +2207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2276,7 +2242,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2308,7 +2274,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2343,7 +2309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2375,7 +2341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2404,7 +2370,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2433,7 +2399,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2468,7 +2434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2500,7 +2466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2532,7 +2498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2564,7 +2530,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2593,7 +2559,7 @@
         <v>0.74999999999999967</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2625,7 +2591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2657,7 +2623,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2686,7 +2652,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2721,7 +2687,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2753,7 +2719,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2782,7 +2748,7 @@
         <v>1.1249999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2814,7 +2780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2846,7 +2812,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2875,7 +2841,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2910,7 +2876,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2948,7 +2914,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2983,7 +2949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3015,7 +2981,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A77" si="5">A70</f>
         <v>Red</v>
@@ -3050,7 +3016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3088,7 +3054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3126,7 +3092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3161,7 +3127,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3193,7 +3159,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3228,7 +3194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3266,7 +3232,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
@@ -3300,232 +3266,232 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C154" s="5"/>
     </row>
   </sheetData>
@@ -3539,27 +3505,27 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="3"/>
-    <col min="2" max="2" width="12.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3"/>
+    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="30" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.81640625" style="1"/>
-    <col min="11" max="11" width="8.81640625" style="3"/>
-    <col min="12" max="12" width="10.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="1"/>
+    <col min="8" max="10" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="8.77734375" style="3"/>
+    <col min="12" max="12" width="10.77734375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3594,7 +3560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3628,7 +3594,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -3660,7 +3626,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Green</v>
@@ -3692,7 +3658,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3724,7 +3690,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3753,7 +3719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3785,7 +3751,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3818,7 +3784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3847,7 +3813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3879,7 +3845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3908,7 +3874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3937,7 +3903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3972,7 +3938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4010,7 +3976,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4039,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4068,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4103,7 +4069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4135,7 +4101,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4164,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4196,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4228,7 +4194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4260,7 +4226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4292,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4321,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4350,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4379,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4408,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4437,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4475,7 +4441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4510,7 +4476,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4539,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4571,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4603,7 +4569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4635,7 +4601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4664,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4696,7 +4662,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4731,7 +4697,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -4763,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4795,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4827,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4859,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4891,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4923,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4955,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4987,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5019,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5051,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5083,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5115,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5147,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5179,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5211,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5243,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5275,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5307,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5339,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5371,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5409,7 +5375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5445,7 +5411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5474,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5503,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5535,7 +5501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5573,7 +5539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5605,7 +5571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5634,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5666,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5695,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5724,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5756,7 +5722,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5788,7 +5754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="5">A70</f>
         <v>Green</v>
@@ -5817,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5846,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5875,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5910,7 +5876,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5942,7 +5908,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5971,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6006,7 +5972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6044,7 +6010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6073,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6102,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6131,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6160,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6189,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6218,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6247,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6285,7 +6251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6320,7 +6286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6349,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6384,7 +6350,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6416,7 +6382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6445,7 +6411,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6474,7 +6440,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6503,7 +6469,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6532,7 +6498,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6561,7 +6527,7 @@
         <v>-0.375</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6590,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6622,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6654,7 +6620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6686,7 +6652,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6715,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6750,7 +6716,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6785,7 +6751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6817,7 +6783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6846,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6878,7 +6844,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6914,7 +6880,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6943,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6972,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7001,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7033,7 +6999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7065,7 +7031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7094,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7123,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7152,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7185,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7214,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7246,7 +7212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7278,7 +7244,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7307,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7336,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7365,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7397,7 +7363,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7432,7 +7398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7465,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7497,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7529,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7561,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7593,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7625,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7657,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7689,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7721,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7754,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7786,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A153" si="10">A134</f>
         <v>Green</v>
@@ -7818,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7850,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7882,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7914,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7946,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -7978,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8010,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8043,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8075,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8110,7 +8076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8142,7 +8108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8171,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8203,7 +8169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8235,7 +8201,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8264,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8296,7 +8262,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8331,7 +8297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8366,7 +8332,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8401,7 +8367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>10</v>
       </c>
@@ -8435,7 +8401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="str">
         <f>A154</f>
         <v>Red</v>
@@ -8464,7 +8430,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="str">
         <f t="shared" ref="A156:A219" si="14">A155</f>
         <v>Red</v>
@@ -8496,7 +8462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8528,7 +8494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8557,7 +8523,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8589,7 +8555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8624,7 +8590,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8653,7 +8619,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8691,7 +8657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8726,7 +8692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8755,7 +8721,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8787,7 +8753,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8819,7 +8785,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8848,7 +8814,7 @@
         <v>2.0909999999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8883,7 +8849,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8921,7 +8887,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8950,7 +8916,7 @@
         <v>0.24099999999999966</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8980,7 +8946,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9009,7 +8975,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9041,7 +9007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9076,7 +9042,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9105,7 +9071,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9137,7 +9103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9172,7 +9138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9204,7 +9170,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9236,7 +9202,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9271,7 +9237,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9306,7 +9272,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9338,7 +9304,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9370,7 +9336,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9402,7 +9368,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9423,7 +9389,7 @@
         <v>70</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I185" s="8">
         <f t="shared" si="13"/>
@@ -9437,7 +9403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9458,7 +9424,7 @@
         <v>70</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I186" s="8">
         <f t="shared" si="13"/>
@@ -9472,7 +9438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9504,7 +9470,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9536,7 +9502,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9568,7 +9534,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="str">
         <f>A186</f>
         <v>Red</v>
@@ -9600,7 +9566,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9635,7 +9601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9670,7 +9636,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9702,7 +9668,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9734,7 +9700,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9766,7 +9732,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9801,7 +9767,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9836,7 +9802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9871,7 +9837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9906,7 +9872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9938,7 +9904,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9973,7 +9939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10005,7 +9971,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10034,7 +10000,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10063,7 +10029,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10098,7 +10064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10130,7 +10096,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10162,7 +10128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10194,7 +10160,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10223,7 +10189,7 @@
         <v>0.74999999999999967</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10255,7 +10221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10287,7 +10253,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10316,7 +10282,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10351,7 +10317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10383,7 +10349,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10412,7 +10378,7 @@
         <v>1.1249999999999996</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10444,7 +10410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10476,7 +10442,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10505,7 +10471,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10540,7 +10506,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="str">
         <f t="shared" ref="A220:A229" si="17">A219</f>
         <v>Red</v>
@@ -10578,7 +10544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10613,7 +10579,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10645,7 +10611,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10680,7 +10646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10718,7 +10684,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10756,7 +10722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10791,7 +10757,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10823,7 +10789,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10858,7 +10824,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10896,7 +10862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>10</v>
       </c>

--- a/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
+++ b/TrainProject/Excel Files/TrackLayoutUpdated.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaitlyn\Desktop\trainproj\TrainProject\TrainProject\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael McAlpin\Documents\TrainProject\TrainProject\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7536" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Red Line" sheetId="1" r:id="rId1"/>
-    <sheet name="Green Line" sheetId="2" r:id="rId2"/>
+    <sheet name="Track" sheetId="1" r:id="rId1"/>
+    <sheet name="Red and Green Line" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="85">
   <si>
     <t>Block Number</t>
   </si>
@@ -119,21 +119,6 @@
   </si>
   <si>
     <t>CUMALTIVE ELEVATION (M)</t>
-  </si>
-  <si>
-    <t>STATION: SHADYSIDE</t>
-  </si>
-  <si>
-    <t>STATION: HERRON AVE</t>
-  </si>
-  <si>
-    <t>STATION;     STEEL PLAZA; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION;    PENN STATION; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION;     FIRST AVE; UNDERGROUND</t>
   </si>
   <si>
     <t>STATION; STATION SQUARE</t>
@@ -295,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,6 +374,61 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123393</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333422</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA99211-C1BD-4BD1-A77B-02FB3FC5B79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123393" y="485774"/>
+          <a:ext cx="4524854" cy="6048375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -465,6 +505,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -500,6 +557,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,2825 +752,1117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="3"/>
-    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.77734375" style="1"/>
-    <col min="11" max="11" width="10.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>40</v>
-      </c>
-      <c r="I2" s="8">
-        <f>E2*D2/100</f>
-        <v>0.25</v>
-      </c>
-      <c r="J2" s="8">
-        <f>I2</f>
-        <v>0.25</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f>A2</f>
-        <v>Red</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>40</v>
-      </c>
-      <c r="I3" s="8">
-        <f t="shared" ref="I3:I66" si="0">E3*D3/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="8">
-        <f>I3+J2</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A70" si="1">A3</f>
-        <v>Red</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>40</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J4" s="8">
-        <f t="shared" ref="J4:J67" si="2">I4+J3</f>
-        <v>1.5</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>40</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>40</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" si="2"/>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>40</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="2"/>
-        <v>3.75</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>75</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>75</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>40</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>75</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>75</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>40</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>75</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>40</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="2"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>75</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>40</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="2"/>
-        <v>3.375</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>40</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.68400000000000005</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="2"/>
-        <v>2.6909999999999998</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3">
-        <v>60</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>40</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.6</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="2"/>
-        <v>2.0909999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>60</v>
-      </c>
-      <c r="E16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>40</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.6</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="2"/>
-        <v>1.4909999999999997</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>40</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.25</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2409999999999997</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3">
-        <v>200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>55</v>
-      </c>
-      <c r="I18" s="8">
-        <f>E18*D18/100</f>
-        <v>-1</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="2"/>
-        <v>0.24099999999999966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3">
-        <v>400</v>
-      </c>
-      <c r="E19" s="3">
-        <f>-100*0.241/400</f>
-        <v>-6.0249999999999998E-2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>70</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.24099999999999999</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3">
-        <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>70</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3">
-        <v>200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>70</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>55</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="5">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>55</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="3">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3">
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>55</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>70</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="5">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3">
-        <v>50</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>70</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3">
-        <v>50</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>70</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3">
-        <v>50</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>70</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="3">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>70</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3">
-        <v>60</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>70</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="5">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3">
-        <v>60</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>70</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="3">
-        <v>31</v>
-      </c>
-      <c r="D32" s="3">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>70</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="5">
-        <v>32</v>
-      </c>
-      <c r="D33" s="3">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>70</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="3">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3">
-        <v>50</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>70</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="3">
-        <v>34</v>
-      </c>
-      <c r="D35" s="3">
-        <v>50</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>70</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="5">
-        <v>35</v>
-      </c>
-      <c r="D36" s="3">
-        <v>50</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>70</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="3">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>70</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="str">
-        <f>A34</f>
-        <v>Red</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="3">
-        <v>37</v>
-      </c>
-      <c r="D38" s="3">
-        <v>50</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>70</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="5">
-        <v>38</v>
-      </c>
-      <c r="D39" s="3">
-        <v>50</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>70</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="3">
-        <v>39</v>
-      </c>
-      <c r="D40" s="3">
-        <v>50</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>70</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="3">
-        <v>40</v>
-      </c>
-      <c r="D41" s="3">
-        <v>60</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>70</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="5">
-        <v>41</v>
-      </c>
-      <c r="D42" s="3">
-        <v>60</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>70</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="3">
-        <v>42</v>
-      </c>
-      <c r="D43" s="3">
-        <v>50</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>70</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="3">
-        <v>43</v>
-      </c>
-      <c r="D44" s="3">
-        <v>50</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>70</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="5">
-        <v>44</v>
-      </c>
-      <c r="D45" s="3">
-        <v>50</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>70</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="3">
-        <v>45</v>
-      </c>
-      <c r="D46" s="3">
-        <v>50</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>70</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="3">
-        <v>46</v>
-      </c>
-      <c r="D47" s="3">
-        <v>75</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>70</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="5">
-        <v>47</v>
-      </c>
-      <c r="D48" s="3">
-        <v>75</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>70</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I48" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="3">
-        <v>48</v>
-      </c>
-      <c r="D49" s="3">
-        <v>75</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>70</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="3">
-        <v>49</v>
-      </c>
-      <c r="D50" s="3">
-        <v>50</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>60</v>
-      </c>
-      <c r="I50" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="5">
-        <v>50</v>
-      </c>
-      <c r="D51" s="3">
-        <v>50</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>60</v>
-      </c>
-      <c r="I51" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="3">
-        <v>51</v>
-      </c>
-      <c r="D52" s="3">
-        <v>50</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>55</v>
-      </c>
-      <c r="I52" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="3">
-        <v>52</v>
-      </c>
-      <c r="D53" s="3">
-        <v>43.2</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>55</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="5">
-        <v>53</v>
-      </c>
-      <c r="D54" s="3">
-        <v>50</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>55</v>
-      </c>
-      <c r="I54" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="3">
-        <v>54</v>
-      </c>
-      <c r="D55" s="3">
-        <v>50</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>55</v>
-      </c>
-      <c r="I55" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3306690738754696E-16</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="3">
-        <v>55</v>
-      </c>
-      <c r="D56" s="3">
-        <v>75</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F56" s="3">
-        <v>55</v>
-      </c>
-      <c r="I56" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J56" s="8">
-        <f t="shared" si="2"/>
-        <v>0.37499999999999967</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="5">
-        <v>56</v>
-      </c>
-      <c r="D57" s="3">
-        <v>75</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>55</v>
-      </c>
-      <c r="I57" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J57" s="8">
-        <f t="shared" si="2"/>
-        <v>0.74999999999999967</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="3">
-        <v>57</v>
-      </c>
-      <c r="D58" s="3">
-        <v>75</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>55</v>
-      </c>
-      <c r="I58" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J58" s="8">
-        <f t="shared" si="2"/>
-        <v>1.1249999999999996</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="3">
-        <v>58</v>
-      </c>
-      <c r="D59" s="3">
-        <v>75</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>55</v>
-      </c>
-      <c r="I59" s="8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J59" s="8">
-        <f t="shared" si="2"/>
-        <v>1.8749999999999996</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="5">
-        <v>59</v>
-      </c>
-      <c r="D60" s="3">
-        <v>75</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>55</v>
-      </c>
-      <c r="I60" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J60" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2499999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="3">
-        <v>60</v>
-      </c>
-      <c r="D61" s="3">
-        <v>75</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>55</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I61" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2499999999999996</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="3">
-        <v>61</v>
-      </c>
-      <c r="D62" s="3">
-        <v>75</v>
-      </c>
-      <c r="E62" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>55</v>
-      </c>
-      <c r="I62" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J62" s="8">
-        <f t="shared" si="2"/>
-        <v>1.8749999999999996</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="5">
-        <v>62</v>
-      </c>
-      <c r="D63" s="3">
-        <v>75</v>
-      </c>
-      <c r="E63" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F63" s="3">
-        <v>55</v>
-      </c>
-      <c r="I63" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J63" s="8">
-        <f t="shared" si="2"/>
-        <v>1.1249999999999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="3">
-        <v>63</v>
-      </c>
-      <c r="D64" s="3">
-        <v>75</v>
-      </c>
-      <c r="E64" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>55</v>
-      </c>
-      <c r="I64" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J64" s="8">
-        <f t="shared" si="2"/>
-        <v>0.37499999999999956</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="3">
-        <v>64</v>
-      </c>
-      <c r="D65" s="3">
-        <v>75</v>
-      </c>
-      <c r="E65" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F65" s="3">
-        <v>55</v>
-      </c>
-      <c r="I65" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J65" s="8">
-        <f t="shared" si="2"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="5">
-        <v>65</v>
-      </c>
-      <c r="D66" s="3">
-        <v>75</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>55</v>
-      </c>
-      <c r="I66" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="8">
-        <f t="shared" si="2"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="3">
-        <v>66</v>
-      </c>
-      <c r="D67" s="3">
-        <v>75</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
-        <v>55</v>
-      </c>
-      <c r="I67" s="8">
-        <f t="shared" ref="I67:I77" si="3">E67*D67/100</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="8">
-        <f t="shared" si="2"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="3">
-        <v>67</v>
-      </c>
-      <c r="D68" s="3">
-        <v>50</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>55</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="8">
-        <f t="shared" ref="J68:J77" si="4">I68+J67</f>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="5">
-        <v>68</v>
-      </c>
-      <c r="D69" s="3">
-        <v>50</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>55</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="3">
-        <v>69</v>
-      </c>
-      <c r="D70" s="3">
-        <v>50</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>55</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="str">
-        <f t="shared" ref="A71:A77" si="5">A70</f>
-        <v>Red</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="3">
-        <v>70</v>
-      </c>
-      <c r="D71" s="3">
-        <v>50</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>55</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="5">
-        <v>71</v>
-      </c>
-      <c r="D72" s="3">
-        <v>50</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>55</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="3">
-        <v>72</v>
-      </c>
-      <c r="D73" s="3">
-        <v>50</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
-        <v>55</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="3">
-        <v>73</v>
-      </c>
-      <c r="D74" s="3">
-        <v>50</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>55</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="5">
-        <v>74</v>
-      </c>
-      <c r="D75" s="3">
-        <v>50</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>55</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="3">
-        <v>75</v>
-      </c>
-      <c r="D76" s="3">
-        <v>50</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>55</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="3">
-        <v>76</v>
-      </c>
-      <c r="D77" s="3">
-        <v>50</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <v>55</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
-        <f t="shared" si="4"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="5">
-        <v>77</v>
-      </c>
-      <c r="D78" s="3">
-        <v>50</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>35</v>
-      </c>
-      <c r="I78" s="8">
-        <f t="shared" ref="I78" si="6">E78*D78/100</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="8">
-        <f t="shared" ref="J78" si="7">I78+J77</f>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3504,28 +1870,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="3"/>
-    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="30" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.77734375" style="1"/>
-    <col min="11" max="11" width="8.77734375" style="3"/>
-    <col min="12" max="12" width="10.77734375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="1"/>
+    <col min="8" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="8.7109375" style="3"/>
+    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3542,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>9</v>
@@ -3554,13 +1920,13 @@
         <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3588,13 +1954,13 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -3615,7 +1981,7 @@
         <v>55</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="0">E3*D3/100</f>
@@ -3626,7 +1992,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Green</v>
@@ -3655,10 +2021,10 @@
         <v>3</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3687,10 +2053,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3719,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3748,10 +2114,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3781,10 +2147,10 @@
         <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3813,7 +2179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3834,7 +2200,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -3845,7 +2211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3874,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3903,7 +2269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3932,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3970,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4005,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4034,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4055,7 +2421,7 @@
         <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
@@ -4066,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4098,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4130,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4151,7 +2517,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
@@ -4162,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4191,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4223,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4247,7 +2613,7 @@
         <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
@@ -4258,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4287,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4316,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4345,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4374,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4403,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4435,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4470,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4505,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4526,7 +2892,7 @@
         <v>70</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
@@ -4537,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4566,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4598,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4630,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4659,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4694,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -4729,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4761,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4782,7 +3148,7 @@
         <v>70</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="0"/>
@@ -4793,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4825,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4857,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4889,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4921,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4953,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4985,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5017,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5049,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5070,7 +3436,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="0"/>
@@ -5081,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5113,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5145,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5177,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5209,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5241,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5273,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5305,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5337,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5358,7 +3724,7 @@
         <v>70</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="0"/>
@@ -5369,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5405,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5440,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5469,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5498,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5522,7 +3888,7 @@
         <v>60</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="0"/>
@@ -5533,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5568,10 +3934,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5600,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5621,7 +3987,7 @@
         <v>70</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="0"/>
@@ -5632,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5661,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5690,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5719,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5751,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="5">A70</f>
         <v>Green</v>
@@ -5783,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5812,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5841,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5862,7 +4228,7 @@
         <v>60</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="3"/>
@@ -5873,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5905,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5937,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5966,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5993,7 +4359,7 @@
         <v>70</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" ref="I78:I109" si="6">E78*D78/100</f>
@@ -6004,13 +4370,13 @@
         <v>0</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6039,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6068,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6097,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6126,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6155,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6184,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6213,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6245,13 +4611,13 @@
         <v>0</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6280,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6315,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6336,7 +4702,7 @@
         <v>55</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="6"/>
@@ -6347,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6379,10 +4745,10 @@
         <v>-0.375</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6411,7 +4777,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6440,7 +4806,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6469,7 +4835,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6498,7 +4864,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6527,7 +4893,7 @@
         <v>-0.375</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6556,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6577,7 +4943,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="6"/>
@@ -6588,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6617,10 +4983,10 @@
         <v>0</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6649,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6681,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6710,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6745,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6780,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6812,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6841,10 +5207,10 @@
         <v>0</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6877,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6909,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6938,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6967,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6996,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C111" s="5">
         <v>110</v>
@@ -7028,16 +5394,16 @@
         <v>0</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C112" s="3">
         <v>111</v>
@@ -7060,13 +5426,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C113" s="3">
         <v>112</v>
@@ -7089,13 +5455,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C114" s="3">
         <v>113</v>
@@ -7118,13 +5484,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C115" s="5">
         <v>114</v>
@@ -7151,13 +5517,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C116" s="3">
         <v>115</v>
@@ -7180,13 +5546,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C117" s="3">
         <v>116</v>
@@ -7209,16 +5575,16 @@
         <v>0</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C118" s="3">
         <v>117</v>
@@ -7241,16 +5607,16 @@
         <v>0</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C119" s="5">
         <v>118</v>
@@ -7273,13 +5639,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C120" s="3">
         <v>119</v>
@@ -7302,13 +5668,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C121" s="3">
         <v>120</v>
@@ -7331,13 +5697,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C122" s="3">
         <v>121</v>
@@ -7360,16 +5726,16 @@
         <v>0</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C123" s="5">
         <v>122</v>
@@ -7395,16 +5761,16 @@
         <v>0</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C124" s="3">
         <v>123</v>
@@ -7431,13 +5797,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C125" s="3">
         <v>124</v>
@@ -7463,13 +5829,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C126" s="3">
         <v>125</v>
@@ -7495,13 +5861,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C127" s="5">
         <v>126</v>
@@ -7527,13 +5893,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C128" s="3">
         <v>127</v>
@@ -7559,13 +5925,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C129" s="3">
         <v>128</v>
@@ -7591,13 +5957,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C130" s="3">
         <v>129</v>
@@ -7623,13 +5989,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C131" s="5">
         <v>130</v>
@@ -7655,13 +6021,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C132" s="3">
         <v>131</v>
@@ -7687,13 +6053,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C133" s="3">
         <v>132</v>
@@ -7720,13 +6086,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C134" s="3">
         <v>133</v>
@@ -7752,13 +6118,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A153" si="10">A134</f>
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C135" s="5">
         <v>134</v>
@@ -7784,13 +6150,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C136" s="3">
         <v>135</v>
@@ -7816,13 +6182,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C137" s="3">
         <v>136</v>
@@ -7848,13 +6214,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C138" s="3">
         <v>137</v>
@@ -7880,13 +6246,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C139" s="5">
         <v>138</v>
@@ -7912,13 +6278,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C140" s="3">
         <v>139</v>
@@ -7944,13 +6310,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C141" s="3">
         <v>140</v>
@@ -7976,13 +6342,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C142" s="3">
         <v>141</v>
@@ -8009,13 +6375,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C143" s="5">
         <v>142</v>
@@ -8041,13 +6407,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C144" s="3">
         <v>143</v>
@@ -8073,16 +6439,16 @@
         <v>0</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C145" s="3">
         <v>144</v>
@@ -8105,16 +6471,16 @@
         <v>0</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C146" s="3">
         <v>145</v>
@@ -8137,13 +6503,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C147" s="5">
         <v>146</v>
@@ -8166,16 +6532,16 @@
         <v>0</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C148" s="3">
         <v>147</v>
@@ -8198,16 +6564,16 @@
         <v>0</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C149" s="3">
         <v>148</v>
@@ -8230,13 +6596,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C150" s="3">
         <v>149</v>
@@ -8259,16 +6625,16 @@
         <v>0</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C151" s="5">
         <v>150</v>
@@ -8291,19 +6657,19 @@
         <v>0</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C152" s="5">
         <v>151</v>
@@ -8326,19 +6692,19 @@
         <v>0</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C153" s="5">
         <v>152</v>
@@ -8361,13 +6727,13 @@
         <v>0</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>10</v>
       </c>
@@ -8395,13 +6761,13 @@
         <v>0.25</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="str">
         <f>A154</f>
         <v>Red</v>
@@ -8430,7 +6796,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="str">
         <f t="shared" ref="A156:A219" si="14">A155</f>
         <v>Red</v>
@@ -8459,10 +6825,10 @@
         <v>1.5</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8491,10 +6857,10 @@
         <v>2.5</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8523,7 +6889,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8552,10 +6918,10 @@
         <v>3.75</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8576,7 +6942,7 @@
         <v>40</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I160" s="8">
         <f t="shared" si="13"/>
@@ -8587,10 +6953,10 @@
         <v>4.125</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8619,7 +6985,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8640,7 +7006,7 @@
         <v>40</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I162" s="8">
         <f t="shared" si="13"/>
@@ -8651,13 +7017,13 @@
         <v>4.125</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8686,13 +7052,13 @@
         <v>4.125</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8721,7 +7087,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8750,10 +7116,10 @@
         <v>3.375</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8782,10 +7148,10 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8814,7 +7180,7 @@
         <v>2.0909999999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8843,13 +7209,13 @@
         <v>1.4909999999999997</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8870,7 +7236,7 @@
         <v>40</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I169" s="8">
         <f t="shared" si="13"/>
@@ -8881,13 +7247,13 @@
         <v>1.2409999999999997</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8916,7 +7282,7 @@
         <v>0.24099999999999966</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8946,7 +7312,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -8975,7 +7341,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9004,10 +7370,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9028,7 +7394,7 @@
         <v>55</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I174" s="8">
         <f t="shared" si="13"/>
@@ -9039,10 +7405,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9071,7 +7437,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9100,10 +7466,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9135,10 +7501,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9159,7 +7525,7 @@
         <v>70</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I178" s="8">
         <f t="shared" si="13"/>
@@ -9170,7 +7536,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9202,7 +7568,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9234,10 +7600,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9269,10 +7635,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9304,7 +7670,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9336,7 +7702,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9368,7 +7734,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9400,10 +7766,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9435,10 +7801,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9470,7 +7836,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9491,7 +7857,7 @@
         <v>70</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I188" s="8">
         <f t="shared" si="13"/>
@@ -9502,7 +7868,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9534,7 +7900,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="str">
         <f>A186</f>
         <v>Red</v>
@@ -9566,7 +7932,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9598,10 +7964,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9633,10 +7999,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9668,7 +8034,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9700,7 +8066,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9732,7 +8098,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9764,10 +8130,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9799,10 +8165,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9823,7 +8189,7 @@
         <v>70</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I198" s="8">
         <f t="shared" si="13"/>
@@ -9834,10 +8200,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9869,10 +8235,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9893,7 +8259,7 @@
         <v>70</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I200" s="8">
         <f t="shared" si="13"/>
@@ -9904,7 +8270,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9925,7 +8291,7 @@
         <v>70</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I201" s="8">
         <f t="shared" si="13"/>
@@ -9936,10 +8302,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -9968,10 +8334,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10000,7 +8366,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10029,7 +8395,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10061,10 +8427,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10093,10 +8459,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10125,10 +8491,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10157,10 +8523,10 @@
         <v>0.37499999999999967</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10189,7 +8555,7 @@
         <v>0.74999999999999967</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10218,10 +8584,10 @@
         <v>1.1249999999999996</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10250,10 +8616,10 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10282,7 +8648,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10303,7 +8669,7 @@
         <v>55</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I213" s="8">
         <f t="shared" si="13"/>
@@ -10314,10 +8680,10 @@
         <v>2.2499999999999996</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10346,10 +8712,10 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10378,7 +8744,7 @@
         <v>1.1249999999999996</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10407,10 +8773,10 @@
         <v>0.37499999999999956</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10439,10 +8805,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10471,7 +8837,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Red</v>
@@ -10500,13 +8866,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K219" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L219" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L219" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="str">
         <f t="shared" ref="A220:A229" si="17">A219</f>
         <v>Red</v>
@@ -10538,13 +8904,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10576,10 +8942,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10611,7 +8977,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10643,10 +9009,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10678,13 +9044,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10716,13 +9082,13 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10754,10 +9120,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10789,7 +9155,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10821,10 +9187,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="str">
         <f t="shared" si="17"/>
         <v>Red</v>
@@ -10856,18 +9222,18 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C230" s="5">
         <v>77</v>
@@ -10890,10 +9256,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
